--- a/biology/Médecine/Jules_Crochet/Jules_Crochet.xlsx
+++ b/biology/Médecine/Jules_Crochet/Jules_Crochet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le docteur Jules Crochet, né à Dormans (France) le 2 juin 1902 et mort à Tinqueux le 29 novembre 1974, est un pionnier de l’aviation sanitaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur Jules Crochet, né à Dormans (France) le 2 juin 1902 et mort à Tinqueux le 29 novembre 1974, est un pionnier de l’aviation sanitaire.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Crochet est à l'origine de l'aérodrome construit à Reims sur l'emplacement de l'actuel champ de courses. C'est sur ce terrain de Reims-Bezanne que l'aviateur Max Holste procède, au début des années 1950, aux vols d'essais du premier Max-Holste MH-1521 Broussard, un monoplan utilisé par l'armée de l'air (domaine médical, observation, largages) en raison de ses temps très courts de décollage et d'atterrissage. Ce même terrain d'aviation accueillait également un centre aéro-médical inauguré en 1936.
 Durant les années 1930, il accomplit des missions médicales en Afrique pour le compte du gouvernement français. Son épouse, également pilote, l'accompagne dans ces missions.
@@ -546,7 +560,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À Reims, un rond-point baptisé le 15 novembre 1997 porte son nom.
 </t>
